--- a/doc/JoinCommunityRESTfulAPI_v2.0.xlsx
+++ b/doc/JoinCommunityRESTfulAPI_v2.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keqinli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuang/WebstormProjects/s17-ESN-SV7/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>/public</t>
+  </si>
+  <si>
+    <t>post a message</t>
+  </si>
+  <si>
+    <t>pubmsg,username, timeStamp</t>
+  </si>
+  <si>
+    <t>{success:1, suc_msg: "Success"}</t>
+  </si>
+  <si>
+    <t>{success:0, err_type: 1, err_msg:"Database Error"}</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -343,6 +355,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +636,7 @@
   <dimension ref="A1:L1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -928,7 +941,7 @@
       <c r="B16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -944,64 +957,86 @@
       <c r="G17" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B19" s="13"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B22" s="13"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B23" s="13"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B25" s="13"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B27" s="13"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B28" s="13"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B29" s="13"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B30" s="13"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B31" s="13"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B32" s="13"/>
       <c r="G32" s="14"/>
     </row>
